--- a/04_Modelling/01_benthic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_reduced_log_richness_gaussian.xlsx
+++ b/04_Modelling/01_benthic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_reduced_log_richness_gaussian.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>33.17012798876944</v>
+        <v>33.68342010669637</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>20.46964872584414</v>
+        <v>19.98688056329456</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>11.03274698405666</v>
+        <v>11.59610174460543</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>9.421964008289921</v>
+        <v>9.54821618956953</v>
       </c>
     </row>
     <row r="6">
@@ -416,27 +416,27 @@
         </is>
       </c>
       <c r="B6">
-        <v>7.305738718815509</v>
+        <v>6.942073293169964</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NorthwardVelocity</t>
+          <t>seafloorTemp</t>
         </is>
       </c>
       <c r="B7">
-        <v>6.583464691629628</v>
+        <v>6.260710709940269</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>seafloorTemp</t>
+          <t>NorthwardVelocity</t>
         </is>
       </c>
       <c r="B8">
-        <v>6.108759829202535</v>
+        <v>6.049739673978611</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>5.907549053392155</v>
+        <v>5.932857718745275</v>
       </c>
     </row>
   </sheetData>

--- a/04_Modelling/01_benthic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_reduced_log_richness_gaussian.xlsx
+++ b/04_Modelling/01_benthic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_reduced_log_richness_gaussian.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,77 +376,57 @@
         </is>
       </c>
       <c r="B2">
-        <v>33.68342010669637</v>
+        <v>43.39086147001369</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SSTmean</t>
+          <t>Salinity</t>
         </is>
       </c>
       <c r="B3">
-        <v>19.98688056329456</v>
+        <v>17.26054506184183</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BottomDepth</t>
+          <t>Chla</t>
         </is>
       </c>
       <c r="B4">
-        <v>11.59610174460543</v>
+        <v>15.30991789158856</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EastwardVelocity</t>
+          <t>NorthwardVelocity</t>
         </is>
       </c>
       <c r="B5">
-        <v>9.54821618956953</v>
+        <v>9.869822376641364</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Salinity</t>
+          <t>BottomDepth</t>
         </is>
       </c>
       <c r="B6">
-        <v>6.942073293169964</v>
+        <v>8.528657519514532</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>seafloorTemp</t>
+          <t>EastwardVelocity</t>
         </is>
       </c>
       <c r="B7">
-        <v>6.260710709940269</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NorthwardVelocity</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>6.049739673978611</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Chla</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>5.932857718745275</v>
+        <v>5.640195680400025</v>
       </c>
     </row>
   </sheetData>
